--- a/output/clinical_files/Ovarian Bevacizumab Response/new_CA125 data_20230207.xlsx
+++ b/output/clinical_files/Ovarian Bevacizumab Response/new_CA125 data_20230207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honomichlnatasha/Documents/pathology/finished/OvarianBevacizumabResponse_Taiwan/new_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/honomichlnatasha/Documents/pathology/finished/OvarianBevacizumabResponse_Taiwan/updates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DCDA5B7-1688-4A4B-A6BA-1740EB2B599E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24707D5A-1A87-4642-A7B4-947D34B1B4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="25920" windowHeight="22320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="500" windowWidth="25920" windowHeight="22320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ovary.effective-162" sheetId="2" r:id="rId1"/>
@@ -962,14 +962,14 @@
     <t>3maintenance10-P001813872B.svs</t>
   </si>
   <si>
-    <t>P00181928C.svs</t>
-  </si>
-  <si>
     <t>invalid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1739259-E-Y.svs</t>
+  </si>
+  <si>
+    <t>P00181938C.svs</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,12 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1553,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E107" sqref="E107"/>
     </sheetView>
@@ -3729,23 +3723,23 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="30" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="29">
+    <row r="109" spans="1:8" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>110</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="1">
         <v>2630938</v>
       </c>
-      <c r="C109" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="29" t="s">
+      <c r="C109" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E109" s="29">
+      <c r="E109" s="1">
         <v>132</v>
       </c>
-      <c r="F109" s="29">
+      <c r="F109" s="1">
         <v>24</v>
       </c>
     </row>
@@ -4096,7 +4090,7 @@
         <v>285</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>254</v>
@@ -4858,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G127"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5407,10 +5401,10 @@
         <v>3043462</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E26" s="24">
         <v>148</v>
